--- a/data/trans_orig/P21-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>832935</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>806800</v>
+        <v>806245</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>858107</v>
+        <v>855605</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8073243433384855</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7819928535949305</v>
+        <v>0.7814548151858117</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8317226844970608</v>
+        <v>0.8292969335199027</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>956</v>
@@ -765,19 +765,19 @@
         <v>973645</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>940434</v>
+        <v>941101</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1005472</v>
+        <v>1005051</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7403510411602651</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7150971138601507</v>
+        <v>0.7156046243182163</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7645519991570296</v>
+        <v>0.7642313400477172</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1791</v>
@@ -786,19 +786,19 @@
         <v>1806580</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1764911</v>
+        <v>1767281</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1846624</v>
+        <v>1846493</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7697940448774462</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7520386949425947</v>
+        <v>0.7530486106230407</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7868571258399109</v>
+        <v>0.786801335832413</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>8719</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4243</v>
+        <v>3766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16237</v>
+        <v>15477</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008450540422887828</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004112726190484327</v>
+        <v>0.003650051581113041</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01573817058361024</v>
+        <v>0.01500100955732874</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -836,19 +836,19 @@
         <v>22175</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14582</v>
+        <v>14155</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33911</v>
+        <v>33744</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01686171438935318</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01108811853909982</v>
+        <v>0.01076321220165972</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02578539057306489</v>
+        <v>0.02565853041780641</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -857,19 +857,19 @@
         <v>30894</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20442</v>
+        <v>21283</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43111</v>
+        <v>43347</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01316396889516383</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008710317564524544</v>
+        <v>0.009068878867796891</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01836996851451537</v>
+        <v>0.01847020781698562</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>190069</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>165100</v>
+        <v>168796</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>217128</v>
+        <v>217140</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1842251162386268</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1600233187936666</v>
+        <v>0.1636056018045806</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2104518219570518</v>
+        <v>0.2104634463816976</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>314</v>
@@ -907,19 +907,19 @@
         <v>319293</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>288645</v>
+        <v>288637</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>353647</v>
+        <v>350984</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2427872444503818</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2194831752858945</v>
+        <v>0.2194770042663452</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2689097715930328</v>
+        <v>0.2668852214989496</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>508</v>
@@ -928,19 +928,19 @@
         <v>509362</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>471847</v>
+        <v>470201</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>552188</v>
+        <v>550092</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.21704198622739</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2010566852662738</v>
+        <v>0.2003551932695796</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2352904241751856</v>
+        <v>0.2343972846038837</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>1410578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1377826</v>
+        <v>1380353</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1443605</v>
+        <v>1441315</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8334148014782448</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8140642214465101</v>
+        <v>0.8155567845092832</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8529284872772268</v>
+        <v>0.8515750638416576</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1186</v>
@@ -1053,19 +1053,19 @@
         <v>1210286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1176794</v>
+        <v>1177427</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1243221</v>
+        <v>1244921</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7627536209313075</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7416456976473919</v>
+        <v>0.7420448561378256</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7835097179042632</v>
+        <v>0.784581578092775</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2561</v>
@@ -1074,19 +1074,19 @@
         <v>2620863</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2573750</v>
+        <v>2569774</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2670698</v>
+        <v>2669543</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7992240438195611</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7848570048384944</v>
+        <v>0.7836443408878285</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8144209375330924</v>
+        <v>0.8140688276787083</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>8327</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3490</v>
+        <v>3535</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16687</v>
+        <v>16790</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.004920078352928087</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002062073339202772</v>
+        <v>0.002088456081242095</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.009859161625450495</v>
+        <v>0.009920362993137768</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -1124,19 +1124,19 @@
         <v>12262</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6528</v>
+        <v>6704</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21396</v>
+        <v>21218</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007727865092069728</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004114188318430026</v>
+        <v>0.004225337988246289</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0134843804698379</v>
+        <v>0.01337191468115828</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -1145,19 +1145,19 @@
         <v>20589</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13184</v>
+        <v>13225</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31780</v>
+        <v>31653</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.00627867942939168</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004020292680334007</v>
+        <v>0.004032808372350907</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.009691071494527546</v>
+        <v>0.009652512144956269</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>273623</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>240838</v>
+        <v>244280</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>305574</v>
+        <v>303341</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1616651201688271</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1422946600968147</v>
+        <v>0.1443287200909812</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1805431728063964</v>
+        <v>0.1792238563599471</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>355</v>
@@ -1195,19 +1195,19 @@
         <v>364185</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>331978</v>
+        <v>331619</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>397380</v>
+        <v>398650</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2295185139766228</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2092210061181985</v>
+        <v>0.2089950444664843</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2504388273276464</v>
+        <v>0.2512392424980239</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>620</v>
@@ -1216,19 +1216,19 @@
         <v>637807</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>589354</v>
+        <v>590343</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>686346</v>
+        <v>688445</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1944972767510471</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1797217283952665</v>
+        <v>0.1800232942046313</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2092989778305219</v>
+        <v>0.2099392372985461</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>471800</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>452748</v>
+        <v>453865</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>488156</v>
+        <v>487438</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8556270342372989</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8210767214913122</v>
+        <v>0.8231010584084171</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8852903946182634</v>
+        <v>0.8839879954951563</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>351</v>
@@ -1341,19 +1341,19 @@
         <v>370317</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>350871</v>
+        <v>352529</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>389586</v>
+        <v>388486</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7773049782946698</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7364858161035609</v>
+        <v>0.7399673395513908</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8177497074889355</v>
+        <v>0.8154409405154334</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>805</v>
@@ -1362,19 +1362,19 @@
         <v>842117</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>814857</v>
+        <v>815984</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>865726</v>
+        <v>867657</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8193234456863684</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7928013830277817</v>
+        <v>0.7938974039000486</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8422931797959422</v>
+        <v>0.8441721479383254</v>
       </c>
     </row>
     <row r="13">
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9834</v>
+        <v>8160</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004649003376150029</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01783515141361684</v>
+        <v>0.01479870674431282</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6520</v>
+        <v>5357</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002130783557064402</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01368551814743279</v>
+        <v>0.01124402656645108</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1433,19 +1433,19 @@
         <v>3579</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11252</v>
+        <v>9850</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003481766189988206</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0009888359002586181</v>
+        <v>0.0009868955814621514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01094754445639207</v>
+        <v>0.009583090063987073</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>77045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61109</v>
+        <v>60925</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95821</v>
+        <v>94956</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1397239623865511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1108242830800646</v>
+        <v>0.1104900354557051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1737748495949473</v>
+        <v>0.1722062226860807</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>100</v>
@@ -1483,19 +1483,19 @@
         <v>105079</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>86124</v>
+        <v>87192</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>123629</v>
+        <v>123442</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2205642381482657</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.180776342333493</v>
+        <v>0.1830177078566474</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.259500654447517</v>
+        <v>0.259107343827773</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>171</v>
@@ -1504,19 +1504,19 @@
         <v>182124</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>160108</v>
+        <v>157702</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>210387</v>
+        <v>207752</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1771947881236434</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.155773915831774</v>
+        <v>0.1534334611945418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.204692146934752</v>
+        <v>0.2021286333564183</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>2715313</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2673755</v>
+        <v>2669091</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2759859</v>
+        <v>2759283</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8289362759508531</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8162495937884396</v>
+        <v>0.8148255909736249</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.842535463112646</v>
+        <v>0.8423597073718442</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2493</v>
@@ -1629,19 +1629,19 @@
         <v>2554248</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2506081</v>
+        <v>2503316</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2607173</v>
+        <v>2602559</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7560846549047984</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7418266308912977</v>
+        <v>0.7410080963009938</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7717508436882775</v>
+        <v>0.7703850428792802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5157</v>
@@ -1650,19 +1650,19 @@
         <v>5269560</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5205201</v>
+        <v>5197198</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5338925</v>
+        <v>5330530</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7919488073880083</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7822765157755485</v>
+        <v>0.7810737510532103</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8023734545485869</v>
+        <v>0.8011118147764028</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>19609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12347</v>
+        <v>11959</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30191</v>
+        <v>30255</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005986424383097811</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003769199477577419</v>
+        <v>0.003650850036686936</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.009216670890448026</v>
+        <v>0.009236301165427292</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -1700,19 +1700,19 @@
         <v>35452</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25436</v>
+        <v>24304</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50265</v>
+        <v>47459</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01049424030612753</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007529375387455925</v>
+        <v>0.007194315539667333</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01487886508034444</v>
+        <v>0.01404822865264461</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -1721,19 +1721,19 @@
         <v>55062</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>41149</v>
+        <v>42109</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>71911</v>
+        <v>72503</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008275085875403508</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006184107365256673</v>
+        <v>0.006328429245140496</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01080731373733109</v>
+        <v>0.01089627156965744</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>540737</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>499109</v>
+        <v>495496</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>583781</v>
+        <v>586672</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1650772996660492</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1523689420137543</v>
+        <v>0.1512659867321313</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1782180121618932</v>
+        <v>0.1791005127716076</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>769</v>
@@ -1771,19 +1771,19 @@
         <v>788556</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>736954</v>
+        <v>741191</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>837025</v>
+        <v>837995</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2334211047890741</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2181462345375177</v>
+        <v>0.2194003834665705</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2477682022718345</v>
+        <v>0.2480555508236792</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1299</v>
@@ -1792,19 +1792,19 @@
         <v>1329293</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1263304</v>
+        <v>1263011</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1392824</v>
+        <v>1392358</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1997761067365882</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1898587547619466</v>
+        <v>0.1898146518732342</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2093240099733729</v>
+        <v>0.2092539484300871</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>722968</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>693549</v>
+        <v>692703</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>748881</v>
+        <v>748652</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7423311523427335</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7121240255162815</v>
+        <v>0.7112552641481739</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7689381698881058</v>
+        <v>0.7687025678712198</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>862</v>
@@ -2156,19 +2156,19 @@
         <v>927031</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>893872</v>
+        <v>892795</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>957176</v>
+        <v>962725</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.693450706024017</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6686461567462979</v>
+        <v>0.6678410766648492</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.716000117006542</v>
+        <v>0.7201508276204019</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1538</v>
@@ -2177,19 +2177,19 @@
         <v>1649999</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1603784</v>
+        <v>1606226</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1697608</v>
+        <v>1695354</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7140524065684212</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6940522508443691</v>
+        <v>0.6951088816099905</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.734655459986396</v>
+        <v>0.7336799042354551</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>17486</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11295</v>
+        <v>10351</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28324</v>
+        <v>27496</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0179541692411637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0115974048526315</v>
+        <v>0.01062828004450471</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02908255959942044</v>
+        <v>0.02823209879219971</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -2227,19 +2227,19 @@
         <v>40646</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29265</v>
+        <v>29433</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55808</v>
+        <v>55173</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03040453561278569</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02189132835297527</v>
+        <v>0.02201695932602225</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04174621445948343</v>
+        <v>0.04127152720787639</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -2248,19 +2248,19 @@
         <v>58132</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43312</v>
+        <v>44451</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76197</v>
+        <v>74403</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02515706471238064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01874371419967208</v>
+        <v>0.01923661497931171</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03297478075296884</v>
+        <v>0.03219839423126043</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>233462</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>207904</v>
+        <v>207283</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>261089</v>
+        <v>261934</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2397146784161028</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2134720844847542</v>
+        <v>0.2128348066623627</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2680817333505743</v>
+        <v>0.2689489078174044</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>347</v>
@@ -2298,19 +2298,19 @@
         <v>369161</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>336808</v>
+        <v>336305</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>400788</v>
+        <v>404540</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2761447583631972</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2519440449301324</v>
+        <v>0.2515674601785553</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2998026626602851</v>
+        <v>0.3026093168795016</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>561</v>
@@ -2319,19 +2319,19 @@
         <v>602623</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>558014</v>
+        <v>560302</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>647614</v>
+        <v>646951</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2607905287191982</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2414858822383508</v>
+        <v>0.242475996798959</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.280260995778187</v>
+        <v>0.2799741259641036</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>1576585</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1542976</v>
+        <v>1538368</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1612538</v>
+        <v>1613089</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8035586754023997</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7864288539109132</v>
+        <v>0.7840802175727264</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8218835231837851</v>
+        <v>0.8221641984465358</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1212</v>
@@ -2444,19 +2444,19 @@
         <v>1302463</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1264874</v>
+        <v>1264372</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1339946</v>
+        <v>1341084</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7418669254970364</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7204569096599215</v>
+        <v>0.7201708395974211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7632164372611202</v>
+        <v>0.763864706691918</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2701</v>
@@ -2465,19 +2465,19 @@
         <v>2879048</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2823640</v>
+        <v>2827635</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2931185</v>
+        <v>2931930</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.774424890698978</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7595208510507204</v>
+        <v>0.7605954680016782</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7884491134285118</v>
+        <v>0.7886494921182611</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>16852</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10533</v>
+        <v>10595</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26875</v>
+        <v>26158</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.008589046222929008</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005368623106481035</v>
+        <v>0.005400214866628002</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01369786052874305</v>
+        <v>0.01333215083813244</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -2515,19 +2515,19 @@
         <v>10579</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5406</v>
+        <v>5126</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18906</v>
+        <v>19155</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.006025927767727012</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.003079324553787487</v>
+        <v>0.00291989832217415</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01076856571877716</v>
+        <v>0.01091036345373785</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -2536,19 +2536,19 @@
         <v>27431</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18112</v>
+        <v>18590</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>39165</v>
+        <v>39194</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.007378619523122754</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004871809193338549</v>
+        <v>0.005000454500715082</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01053483008794854</v>
+        <v>0.01054258764978477</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>368567</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>335248</v>
+        <v>331503</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>406491</v>
+        <v>405647</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1878522783746713</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.17087025430177</v>
+        <v>0.1689613938068176</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2071816108863814</v>
+        <v>0.2067515202675486</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>411</v>
@@ -2586,19 +2586,19 @@
         <v>442613</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>404687</v>
+        <v>404125</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>479605</v>
+        <v>480012</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2521071467352367</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2305049999591917</v>
+        <v>0.2301847719177349</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2731768820255415</v>
+        <v>0.2734086420918297</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>759</v>
@@ -2607,19 +2607,19 @@
         <v>811180</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>759039</v>
+        <v>760581</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>865769</v>
+        <v>863881</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2181964897778992</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2041712151775999</v>
+        <v>0.2045859191331191</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2328800313662717</v>
+        <v>0.2323724218727543</v>
       </c>
     </row>
     <row r="11">
@@ -2711,19 +2711,19 @@
         <v>411717</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>394629</v>
+        <v>394940</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>427158</v>
+        <v>425794</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8556380487902326</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8201253056283206</v>
+        <v>0.8207717128363579</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8877291456607282</v>
+        <v>0.884894588632465</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>311</v>
@@ -2732,19 +2732,19 @@
         <v>344323</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>323014</v>
+        <v>324830</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>364622</v>
+        <v>364124</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7507623102470956</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7042995618789052</v>
+        <v>0.7082605906760318</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7950218319844409</v>
+        <v>0.7939377591569833</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>683</v>
@@ -2753,19 +2753,19 @@
         <v>756040</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>732887</v>
+        <v>729732</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>781380</v>
+        <v>782409</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8044584009993552</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7798225664313315</v>
+        <v>0.7764649709266958</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8314210214953921</v>
+        <v>0.8325160006271476</v>
       </c>
     </row>
     <row r="13">
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5365</v>
+        <v>4789</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002084667539062825</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01169737257168402</v>
+        <v>0.01044211142160754</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4636</v>
+        <v>4526</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001017323471495045</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.004932607436391676</v>
+        <v>0.004815320390342259</v>
       </c>
     </row>
     <row r="14">
@@ -2845,19 +2845,19 @@
         <v>69464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54023</v>
+        <v>55387</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>86552</v>
+        <v>86241</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1443619512097673</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1122708543392713</v>
+        <v>0.1151054113675347</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1798746943716793</v>
+        <v>0.1792282871636419</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>100</v>
@@ -2866,19 +2866,19 @@
         <v>113352</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93606</v>
+        <v>93255</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>134929</v>
+        <v>133249</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2471530222138416</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2040989940610082</v>
+        <v>0.2033340672824714</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.294200187996479</v>
+        <v>0.2905369660887931</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>166</v>
@@ -2887,19 +2887,19 @@
         <v>182816</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>157386</v>
+        <v>156642</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>206155</v>
+        <v>208995</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1945242755291498</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1674648242337432</v>
+        <v>0.1666736117143201</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2193572131475894</v>
+        <v>0.222379846383169</v>
       </c>
     </row>
     <row r="15">
@@ -2991,19 +2991,19 @@
         <v>2711270</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2659776</v>
+        <v>2662554</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2757631</v>
+        <v>2758911</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7934416643417996</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7783720346006618</v>
+        <v>0.7791851613510036</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8070089111604263</v>
+        <v>0.8073835787120195</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2385</v>
@@ -3012,19 +3012,19 @@
         <v>2573817</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2512820</v>
+        <v>2512528</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2624089</v>
+        <v>2624651</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.724789258381029</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7076122906721087</v>
+        <v>0.7075300580218274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7389457164123405</v>
+        <v>0.7391041533391912</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4922</v>
@@ -3033,19 +3033,19 @@
         <v>5285087</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5209744</v>
+        <v>5213606</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5361588</v>
+        <v>5361968</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7584552471135075</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7476429037218848</v>
+        <v>0.7481971119418013</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7694337848540788</v>
+        <v>0.769488291787542</v>
       </c>
     </row>
     <row r="17">
@@ -3062,19 +3062,19 @@
         <v>34338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24033</v>
+        <v>23715</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47845</v>
+        <v>47978</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01004875004176462</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00703320180313143</v>
+        <v>0.006940014922941331</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0140017669645874</v>
+        <v>0.01404064815783708</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>48</v>
@@ -3083,19 +3083,19 @@
         <v>52181</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38598</v>
+        <v>38612</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69478</v>
+        <v>69176</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01469435233221441</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01086910077585969</v>
+        <v>0.0108732557313045</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01956516578268809</v>
+        <v>0.01948008301709784</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>82</v>
@@ -3104,19 +3104,19 @@
         <v>86519</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>68125</v>
+        <v>69581</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>105606</v>
+        <v>107090</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01241622686556684</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009776526228620047</v>
+        <v>0.009985441004202844</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01515538833290174</v>
+        <v>0.0153683099279248</v>
       </c>
     </row>
     <row r="18">
@@ -3133,19 +3133,19 @@
         <v>671493</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>626675</v>
+        <v>625467</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>724097</v>
+        <v>720231</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1965095856164358</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1833936565136901</v>
+        <v>0.1830401605269761</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2119039140609398</v>
+        <v>0.2107726449601706</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>858</v>
@@ -3154,19 +3154,19 @@
         <v>925126</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>875140</v>
+        <v>874439</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>985990</v>
+        <v>981070</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2605163892867566</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2464400733001158</v>
+        <v>0.2462429413116373</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2776558059444948</v>
+        <v>0.2762701102528358</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1486</v>
@@ -3175,19 +3175,19 @@
         <v>1596619</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1522511</v>
+        <v>1522156</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1668863</v>
+        <v>1670501</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2291285260209256</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2184934446837318</v>
+        <v>0.2184423761408917</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2394960895461425</v>
+        <v>0.2397311437455384</v>
       </c>
     </row>
     <row r="19">
@@ -3518,19 +3518,19 @@
         <v>613283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>592258</v>
+        <v>591648</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>636022</v>
+        <v>633748</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.815152157431473</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7872065455312137</v>
+        <v>0.7863961534210425</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8453758153814462</v>
+        <v>0.8423536396965623</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>693</v>
@@ -3539,19 +3539,19 @@
         <v>764778</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>736078</v>
+        <v>734978</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>793675</v>
+        <v>792605</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.771122313216027</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7421843732694415</v>
+        <v>0.7410748905778722</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8002584646053434</v>
+        <v>0.7991802436255141</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1311</v>
@@ -3560,19 +3560,19 @@
         <v>1378061</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1341808</v>
+        <v>1343050</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1411995</v>
+        <v>1414690</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7901152221374336</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7693293591008757</v>
+        <v>0.7700412488152459</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8095713905893297</v>
+        <v>0.8111166732602003</v>
       </c>
     </row>
     <row r="5">
@@ -3589,19 +3589,19 @@
         <v>16616</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9353</v>
+        <v>9611</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25681</v>
+        <v>26044</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02208581234824445</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01243111391540365</v>
+        <v>0.01277507576364663</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03413410601274419</v>
+        <v>0.0346169008083282</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -3610,19 +3610,19 @@
         <v>25680</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15887</v>
+        <v>15913</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39681</v>
+        <v>39191</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02589303370353586</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01601918649372701</v>
+        <v>0.01604506260742784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0400101560681386</v>
+        <v>0.03951594184497902</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -3631,19 +3631,19 @@
         <v>42296</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30790</v>
+        <v>30740</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57346</v>
+        <v>59346</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02425073381051654</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01765365860206839</v>
+        <v>0.01762495028174603</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03287969394316153</v>
+        <v>0.03402644780461554</v>
       </c>
     </row>
     <row r="6">
@@ -3660,19 +3660,19 @@
         <v>122455</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>103055</v>
+        <v>101752</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>142350</v>
+        <v>142484</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1627620302202826</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1369773016699012</v>
+        <v>0.1352453650089135</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1892065812077288</v>
+        <v>0.1893836616663426</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>177</v>
@@ -3681,19 +3681,19 @@
         <v>201315</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>176328</v>
+        <v>175232</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>229053</v>
+        <v>227782</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2029846530804371</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1777902756035262</v>
+        <v>0.1766851930165355</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.23095325049462</v>
+        <v>0.229671146039811</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>302</v>
@@ -3702,19 +3702,19 @@
         <v>323769</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>293688</v>
+        <v>291231</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>359013</v>
+        <v>358560</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1856340440520498</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1683869827575658</v>
+        <v>0.166977807233283</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2058408129213943</v>
+        <v>0.205581322502943</v>
       </c>
     </row>
     <row r="7">
@@ -3806,19 +3806,19 @@
         <v>1722779</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1688159</v>
+        <v>1685627</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1757486</v>
+        <v>1756276</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8324061907244641</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8156785272714651</v>
+        <v>0.8144548833570368</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.849175635551523</v>
+        <v>0.8485910656124258</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1529</v>
@@ -3827,19 +3827,19 @@
         <v>1592548</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1557600</v>
+        <v>1555159</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1623597</v>
+        <v>1628801</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8013160680783041</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7837310572644227</v>
+        <v>0.7825032076630442</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8169385419351975</v>
+        <v>0.8195571465002974</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3157</v>
@@ -3848,19 +3848,19 @@
         <v>3315328</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3266558</v>
+        <v>3257886</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3365316</v>
+        <v>3365470</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8171761753556527</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8051551891985732</v>
+        <v>0.8030177536686895</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.829497486678321</v>
+        <v>0.8295354052487628</v>
       </c>
     </row>
     <row r="9">
@@ -3877,19 +3877,19 @@
         <v>28535</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19371</v>
+        <v>19274</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>41435</v>
+        <v>41737</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01378719405992765</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009359784620407249</v>
+        <v>0.009312595206963908</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02002036713350897</v>
+        <v>0.02016650032963147</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -3898,19 +3898,19 @@
         <v>24260</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15539</v>
+        <v>15964</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34559</v>
+        <v>34201</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01220703854740317</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007818891957575269</v>
+        <v>0.008032311299424708</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01738913622154132</v>
+        <v>0.01720856242847954</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>50</v>
@@ -3919,19 +3919,19 @@
         <v>52795</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>39957</v>
+        <v>39037</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>68721</v>
+        <v>68600</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01301312851458532</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009848730385503868</v>
+        <v>0.009621901517224888</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0169387605780994</v>
+        <v>0.01690886347563275</v>
       </c>
     </row>
     <row r="10">
@@ -3948,19 +3948,19 @@
         <v>318324</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>284845</v>
+        <v>285628</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>350639</v>
+        <v>354306</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1538066152156083</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1376302230245222</v>
+        <v>0.1380085739274429</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1694206440476805</v>
+        <v>0.1711921115650721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>355</v>
@@ -3969,19 +3969,19 @@
         <v>370607</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>340001</v>
+        <v>334611</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>408198</v>
+        <v>405515</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1864768933742927</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.171077127542861</v>
+        <v>0.1683648088034211</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2053913391208555</v>
+        <v>0.2040415585696596</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>646</v>
@@ -3990,19 +3990,19 @@
         <v>688931</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>642073</v>
+        <v>642219</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>736716</v>
+        <v>747446</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.169810696129762</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1582609307666035</v>
+        <v>0.1582967601676269</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1815890154918725</v>
+        <v>0.1842335957221715</v>
       </c>
     </row>
     <row r="11">
@@ -4094,19 +4094,19 @@
         <v>470067</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>450201</v>
+        <v>453264</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>485459</v>
+        <v>486542</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8625732524694045</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8261181165557979</v>
+        <v>0.8317394508855073</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8908177724074047</v>
+        <v>0.8928048204706696</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>395</v>
@@ -4115,19 +4115,19 @@
         <v>411198</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>388625</v>
+        <v>388212</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>429213</v>
+        <v>430257</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7524856739797597</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7111777142297482</v>
+        <v>0.7104213521766989</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7854522797506223</v>
+        <v>0.787362619243962</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>828</v>
@@ -4136,19 +4136,19 @@
         <v>881265</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>853900</v>
+        <v>850852</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>907071</v>
+        <v>907818</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8074541142405313</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7823812362716522</v>
+        <v>0.7795883834191856</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8310987162260448</v>
+        <v>0.8317832674748954</v>
       </c>
     </row>
     <row r="13">
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6085</v>
+        <v>5847</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001939212729571925</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01116549104062443</v>
+        <v>0.01072843802561012</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -4186,19 +4186,19 @@
         <v>10615</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5826</v>
+        <v>5172</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18854</v>
+        <v>18508</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01942595800745399</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01066161318166204</v>
+        <v>0.009463899745561428</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03450336420379387</v>
+        <v>0.03386913994063481</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -4207,19 +4207,19 @@
         <v>11672</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6282</v>
+        <v>5579</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20381</v>
+        <v>19899</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01069455409840167</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005756265268065073</v>
+        <v>0.00511166373354913</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01867430657967691</v>
+        <v>0.01823243440254331</v>
       </c>
     </row>
     <row r="14">
@@ -4236,19 +4236,19 @@
         <v>73835</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58454</v>
+        <v>57978</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93832</v>
+        <v>90556</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1354875348010236</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.107263749004979</v>
+        <v>0.1063900651865095</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1721811825008983</v>
+        <v>0.1661700532990005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>119</v>
@@ -4257,19 +4257,19 @@
         <v>124640</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>105970</v>
+        <v>106924</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>146640</v>
+        <v>146736</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2280883680127862</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1939239641025556</v>
+        <v>0.1956695124487396</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.268348482875746</v>
+        <v>0.2685236161265717</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>184</v>
@@ -4278,19 +4278,19 @@
         <v>198475</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>172852</v>
+        <v>173117</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>224887</v>
+        <v>227277</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.181851331661067</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1583750732817361</v>
+        <v>0.1586175920583188</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2060512332048809</v>
+        <v>0.2082414960018958</v>
       </c>
     </row>
     <row r="15">
@@ -4382,19 +4382,19 @@
         <v>2806130</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2759836</v>
+        <v>2755863</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2851975</v>
+        <v>2847359</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8334334309705311</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8196839090204457</v>
+        <v>0.8185037148666029</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8470496316015484</v>
+        <v>0.8456785855684679</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2617</v>
@@ -4403,19 +4403,19 @@
         <v>2768524</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2722000</v>
+        <v>2719999</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2822968</v>
+        <v>2812121</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7852540640344281</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7720581610487667</v>
+        <v>0.7714907690041287</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8006964088965418</v>
+        <v>0.7976197369775543</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5296</v>
@@ -4424,19 +4424,19 @@
         <v>5574654</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5512312</v>
+        <v>5515879</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5647748</v>
+        <v>5644321</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8087891259912109</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7997443272846174</v>
+        <v>0.800261776344983</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8193937353902875</v>
+        <v>0.818896609643593</v>
       </c>
     </row>
     <row r="17">
@@ -4453,19 +4453,19 @@
         <v>46208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34803</v>
+        <v>34966</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63154</v>
+        <v>62495</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01372388343283906</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01033673413339726</v>
+        <v>0.01038492158213101</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01875717196375803</v>
+        <v>0.01856130385843288</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -4474,19 +4474,19 @@
         <v>60556</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45826</v>
+        <v>45016</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>79122</v>
+        <v>78816</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01717583600977952</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01299805745979649</v>
+        <v>0.01276810701273741</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02244195064358061</v>
+        <v>0.0223549791488447</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>98</v>
@@ -4495,19 +4495,19 @@
         <v>106763</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>86918</v>
+        <v>87488</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>133214</v>
+        <v>129427</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01548959721220637</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01261036571415102</v>
+        <v>0.01269303135805695</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01932707457166239</v>
+        <v>0.0187777513700932</v>
       </c>
     </row>
     <row r="18">
@@ -4524,19 +4524,19 @@
         <v>514614</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>473885</v>
+        <v>473023</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>559479</v>
+        <v>560935</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1528426855966298</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1407460478293601</v>
+        <v>0.1404900438050909</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1661677822106989</v>
+        <v>0.1666001877103105</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>651</v>
@@ -4545,19 +4545,19 @@
         <v>696561</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>644584</v>
+        <v>653503</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>743366</v>
+        <v>743439</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1975700999557924</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1828274504582598</v>
+        <v>0.1853571993497853</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2108456386208012</v>
+        <v>0.2108663493942391</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1132</v>
@@ -4566,19 +4566,19 @@
         <v>1211175</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1141592</v>
+        <v>1146274</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1273760</v>
+        <v>1272533</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1757212767965827</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1656258758398243</v>
+        <v>0.1663052502787125</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.184801275187124</v>
+        <v>0.1846232880004512</v>
       </c>
     </row>
     <row r="19">
@@ -4909,19 +4909,19 @@
         <v>437013</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>417231</v>
+        <v>413651</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>456859</v>
+        <v>454336</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7553859437052153</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7211925170533934</v>
+        <v>0.7150041585456024</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7896902595863848</v>
+        <v>0.78532971394913</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1011</v>
@@ -4930,19 +4930,19 @@
         <v>579821</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>559650</v>
+        <v>560305</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>598184</v>
+        <v>599925</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.707539367583141</v>
+        <v>0.7075393675831411</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6829241564530967</v>
+        <v>0.6837243718246346</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7299462931339386</v>
+        <v>0.7320714645297465</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1531</v>
@@ -4951,19 +4951,19 @@
         <v>1016835</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>986502</v>
+        <v>987304</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1045159</v>
+        <v>1044332</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7273392713955475</v>
+        <v>0.7273392713955473</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7056426001186282</v>
+        <v>0.7062161288113303</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7475994001403865</v>
+        <v>0.7470079237828763</v>
       </c>
     </row>
     <row r="5">
@@ -4980,19 +4980,19 @@
         <v>7867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3860</v>
+        <v>4324</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14537</v>
+        <v>14813</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01359796768670932</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006672843475732963</v>
+        <v>0.007473390015336197</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0251269161375739</v>
+        <v>0.02560486849830383</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -5001,19 +5001,19 @@
         <v>21560</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14822</v>
+        <v>15374</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31269</v>
+        <v>31801</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0263092012075579</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01808690358126342</v>
+        <v>0.01876074557548293</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03815641565972375</v>
+        <v>0.03880559510161753</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -5022,19 +5022,19 @@
         <v>29427</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21296</v>
+        <v>21119</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40013</v>
+        <v>38716</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.02104902960389481</v>
+        <v>0.0210490296038948</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01523304670312909</v>
+        <v>0.01510666984498065</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02862096583479343</v>
+        <v>0.02769376321909667</v>
       </c>
     </row>
     <row r="6">
@@ -5051,19 +5051,19 @@
         <v>133650</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114848</v>
+        <v>116696</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>154221</v>
+        <v>155811</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2310160886080755</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1985175192558334</v>
+        <v>0.201712114010145</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2665741266523012</v>
+        <v>0.2693220652926955</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>378</v>
@@ -5072,19 +5072,19 @@
         <v>218108</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>199910</v>
+        <v>199614</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>238702</v>
+        <v>237442</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2661514312093012</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2439440389900687</v>
+        <v>0.2435830838992999</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2912811825636953</v>
+        <v>0.2897433851231651</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>539</v>
@@ -5093,19 +5093,19 @@
         <v>351758</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>326714</v>
+        <v>324862</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>382955</v>
+        <v>379642</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2516116990005577</v>
+        <v>0.2516116990005576</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2336976895491045</v>
+        <v>0.2323730383755645</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2739269986613363</v>
+        <v>0.2715569254595825</v>
       </c>
     </row>
     <row r="7">
@@ -5197,19 +5197,19 @@
         <v>1799083</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1755571</v>
+        <v>1754141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1842303</v>
+        <v>1839839</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8065588859073397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7870516379432284</v>
+        <v>0.7864107577458886</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8259351429126216</v>
+        <v>0.8248304011240348</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2258</v>
@@ -5218,19 +5218,19 @@
         <v>1664710</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1628057</v>
+        <v>1627988</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1700540</v>
+        <v>1697864</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7679513654484397</v>
+        <v>0.7679513654484398</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7510427996117202</v>
+        <v>0.751011400359521</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7844804911886568</v>
+        <v>0.7832460387982494</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3867</v>
@@ -5239,19 +5239,19 @@
         <v>3463793</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3398571</v>
+        <v>3408924</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3518338</v>
+        <v>3523707</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7875309203169952</v>
+        <v>0.7875309203169953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7727021856406118</v>
+        <v>0.7750559506554963</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7999323971994644</v>
+        <v>0.8011531599690659</v>
       </c>
     </row>
     <row r="9">
@@ -5268,19 +5268,19 @@
         <v>8203</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4112</v>
+        <v>4211</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14787</v>
+        <v>14365</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003677328339320891</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001843417312811424</v>
+        <v>0.001887680383896634</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.006629163484643674</v>
+        <v>0.006440241145991859</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -5289,19 +5289,19 @@
         <v>7267</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3677</v>
+        <v>3415</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13587</v>
+        <v>13401</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0033522288752547</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001696372284569548</v>
+        <v>0.001575594477814513</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.006267993002446131</v>
+        <v>0.006182122723370778</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -5310,19 +5310,19 @@
         <v>15469</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9418</v>
+        <v>9656</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>23205</v>
+        <v>23467</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003517100970607165</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00214130183072997</v>
+        <v>0.002195427648823323</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005275924109450867</v>
+        <v>0.005335406686284344</v>
       </c>
     </row>
     <row r="10">
@@ -5339,19 +5339,19 @@
         <v>423281</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>380250</v>
+        <v>382892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>467091</v>
+        <v>468408</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1897637857533394</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1704725455565207</v>
+        <v>0.1716567571997255</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2094045473831043</v>
+        <v>0.2099951550581154</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>650</v>
@@ -5360,19 +5360,19 @@
         <v>495752</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>459708</v>
+        <v>461801</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>532675</v>
+        <v>532295</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2286964056763055</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2120690173490353</v>
+        <v>0.2130344865507848</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2457297106965814</v>
+        <v>0.2455544268684799</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1023</v>
@@ -5381,19 +5381,19 @@
         <v>919032</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>864353</v>
+        <v>862244</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>983123</v>
+        <v>975447</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2089519787123975</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1965199597165358</v>
+        <v>0.1960405159347736</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2235237152938035</v>
+        <v>0.2217785154057579</v>
       </c>
     </row>
     <row r="11">
@@ -5485,19 +5485,19 @@
         <v>550302</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>525230</v>
+        <v>525208</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>574631</v>
+        <v>575770</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7754918262980453</v>
+        <v>0.775491826298045</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7401596459858769</v>
+        <v>0.7401294524394246</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8097756645764725</v>
+        <v>0.8113810324778402</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>765</v>
@@ -5506,19 +5506,19 @@
         <v>543909</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>521334</v>
+        <v>521553</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>563907</v>
+        <v>564505</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7410148405213208</v>
+        <v>0.7410148405213207</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.710258899884098</v>
+        <v>0.710557678221178</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7682609474454845</v>
+        <v>0.7690757745049718</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1305</v>
@@ -5527,19 +5527,19 @@
         <v>1094210</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1058059</v>
+        <v>1056052</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1126083</v>
+        <v>1125908</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7579621111795933</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7329202565533404</v>
+        <v>0.7315297289525059</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7800406774970595</v>
+        <v>0.7799196551836476</v>
       </c>
     </row>
     <row r="13">
@@ -5556,19 +5556,19 @@
         <v>4661</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1806</v>
+        <v>1604</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10581</v>
+        <v>10368</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006568464581351543</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002544658251534583</v>
+        <v>0.002259701861086829</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01491027479552044</v>
+        <v>0.01461112655363609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -5577,19 +5577,19 @@
         <v>3367</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1329</v>
+        <v>1298</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8015</v>
+        <v>7399</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.004587504145895408</v>
+        <v>0.004587504145895407</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001810927202021424</v>
+        <v>0.001768919797373376</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01092007683099258</v>
+        <v>0.01007963590963064</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -5598,19 +5598,19 @@
         <v>8028</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3838</v>
+        <v>4272</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14287</v>
+        <v>14697</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.005561251470572182</v>
+        <v>0.005561251470572183</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002658642304126645</v>
+        <v>0.002958975026133365</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009896555277888687</v>
+        <v>0.01018096457583002</v>
       </c>
     </row>
     <row r="14">
@@ -5627,19 +5627,19 @@
         <v>154654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>130088</v>
+        <v>130468</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>179244</v>
+        <v>180845</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2179397091206031</v>
+        <v>0.2179397091206032</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1833218319356441</v>
+        <v>0.1838563303915948</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2525919834187414</v>
+        <v>0.254848123611819</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>233</v>
@@ -5648,19 +5648,19 @@
         <v>186729</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>167152</v>
+        <v>166540</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>209563</v>
+        <v>208976</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.254397655332784</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2277264543006347</v>
+        <v>0.2268923837384435</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2855061410695224</v>
+        <v>0.2847063935040027</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>368</v>
@@ -5669,19 +5669,19 @@
         <v>341383</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>309789</v>
+        <v>310687</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>377760</v>
+        <v>380171</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2364766373498345</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2145914869669397</v>
+        <v>0.2152136900085007</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2616755514460664</v>
+        <v>0.2633453374454028</v>
       </c>
     </row>
     <row r="15">
@@ -5773,19 +5773,19 @@
         <v>2786398</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2733761</v>
+        <v>2726090</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2839778</v>
+        <v>2842161</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7918800069121719</v>
+        <v>0.791880006912172</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7769207939736317</v>
+        <v>0.7747407905060089</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8070505489738099</v>
+        <v>0.8077276855638826</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4034</v>
@@ -5794,19 +5794,19 @@
         <v>2788439</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2741486</v>
+        <v>2740863</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2839451</v>
+        <v>2832324</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.749334211205137</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.736716472177845</v>
+        <v>0.7365491201241051</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7630425400033607</v>
+        <v>0.7611275055882014</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6703</v>
@@ -5815,19 +5815,19 @@
         <v>5574837</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5509242</v>
+        <v>5506505</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5648634</v>
+        <v>5642124</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7700120796759156</v>
+        <v>0.7700120796759159</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7609519134477357</v>
+        <v>0.7605737637652266</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7802050529417528</v>
+        <v>0.7793059590284012</v>
       </c>
     </row>
     <row r="17">
@@ -5844,19 +5844,19 @@
         <v>20730</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13695</v>
+        <v>13994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29991</v>
+        <v>32129</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.005891484867695257</v>
+        <v>0.005891484867695258</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00389209352506147</v>
+        <v>0.003977150274562481</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.008523324304634842</v>
+        <v>0.009131003753539991</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -5865,19 +5865,19 @@
         <v>32194</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23497</v>
+        <v>23929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42716</v>
+        <v>43005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008651484792090252</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006314250902734742</v>
+        <v>0.006430465009439693</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0114791282938214</v>
+        <v>0.0115566766582075</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>74</v>
@@ -5886,19 +5886,19 @@
         <v>52925</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40483</v>
+        <v>41448</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>66858</v>
+        <v>66349</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.007310085143368612</v>
+        <v>0.007310085143368615</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005591600765610699</v>
+        <v>0.005724913322482492</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.009234572657357812</v>
+        <v>0.00916432338834787</v>
       </c>
     </row>
     <row r="18">
@@ -5915,19 +5915,19 @@
         <v>711584</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>657897</v>
+        <v>658042</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>764108</v>
+        <v>770616</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2022285082201328</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1869709053915155</v>
+        <v>0.1870122094768771</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2171556122103597</v>
+        <v>0.219005024600795</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1261</v>
@@ -5936,19 +5936,19 @@
         <v>900589</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>850035</v>
+        <v>855576</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>946408</v>
+        <v>946521</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2420143040027728</v>
+        <v>0.2420143040027727</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2284289539558716</v>
+        <v>0.2299181257746044</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2543272702397817</v>
+        <v>0.2543574860350192</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1930</v>
@@ -5957,19 +5957,19 @@
         <v>1612173</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1542448</v>
+        <v>1545212</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1682180</v>
+        <v>1680210</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2226778351807155</v>
+        <v>0.2226778351807156</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2130472579967883</v>
+        <v>0.2134290178797557</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2323473821275058</v>
+        <v>0.2320752375751665</v>
       </c>
     </row>
     <row r="19">
